--- a/biology/Botanique/Liste_de_plantes_d'Amazonie/Liste_de_plantes_d'Amazonie.xlsx
+++ b/biology/Botanique/Liste_de_plantes_d'Amazonie/Liste_de_plantes_d'Amazonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_d%27Amazonie</t>
+          <t>Liste_de_plantes_d'Amazonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On a recensé :
 40 000 espèces de plantes en Amazonie.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_d%27Amazonie</t>
+          <t>Liste_de_plantes_d'Amazonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Acérola
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acérola
 Aguaje
 Alcanfor (Camphre?)
 Acioa edulis
@@ -547,9 +564,43 @@
  Astronium
 Averrhoidium dalyi
 Ayahuasca
-Ajo Sacha
-B
-Banisteriopsis caapi 
+Ajo Sacha</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Banisteriopsis caapi 
  Baumier du Pérou 
 Baccharis
 Bactris
@@ -558,9 +609,43 @@
  Bois du Brésil
  Brède Mafane 
 Breu Branco
- Bombax
-C
-Cabalonga
+ Bombax</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cabalonga
  Caféier
  Caesalpinia pulcherrima
 Caigua
@@ -580,12 +665,80 @@
 Croton asperrimus
 Courbaril
 Couroupita
- Cupuaçu
-D
-Digitalis purpurea
- Dimorphandra 
-E
-Eschweilera
+ Cupuaçu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitalis purpurea
+ Dimorphandra </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eschweilera
 Echomoboco
 Endopleura uchi
 Eperua falcata
@@ -593,31 +746,269 @@
  Espingo
  Erythrina fusca
 Eugenia stipitata (en)
-Eichhornia crassipes
-F
- Ficus 
-G
-Gomphrena
+Eichhornia crassipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ficus </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gomphrena
 Griffe de chat
 Guayusa
 Goupia
-Guarana
-H
-Hymenaea
+Guarana</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hymenaea
  Hymenolobium
  Hura crepitans
- Hévéa 
-I
- Igapo 
+ Hévéa </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Igapo 
  Inga
- Ipe Roxio
-J
-Juca
-L
- Liane
-Leopoldinia piassaba (en)
-M
-Manguier
+ Ipe Roxio</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Juca</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liane
+Leopoldinia piassaba (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Manguier
 Manilkara
 Manioc 
 Maracujà
@@ -632,14 +1023,116 @@
 Murmuru
 Myrciaria dubia
 Myriophylle aquatique
-Mytenus
-N
-Noyer d'Amazonie 
-O
-Ocotea 
-Orchidée
-P
- Papaver somniferum 
+Mytenus</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noyer d'Amazonie </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ocotea 
+Orchidée</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Papaver somniferum 
 Parkia
  Pata de Vaca 
  Pau d'Arco 
@@ -656,44 +1149,282 @@
 Prestonia amazonica (en)
 Pterocarpus officinalis
 Pucherin
-Pupunha
-Q
-Quararibea cordata
- Quinquina
-R
- Ricinus communis 
- Roucou
-S
- Liane Strychnos 
+Pupunha</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Quararibea cordata
+ Quinquina</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ricinus communis 
+ Roucou</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liane Strychnos 
  Sacaca
 Sandbox Tree (en)
 Schefflera morototoni
 Socratea exorrhiza
  Suma root (en)
-Symphonia globulifera
-T
-Swartzia 
+Symphonia globulifera</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Swartzia 
  Swietenia
 Theobroma
 Thévétia du Pérou
  Tabac
  Tayuya 
  Tetrapterys methystica (en)
-Tynanthus panurensis
-U
-Uncaria tomentosa
-Uxi amarelo
-V
- Vanillier 
+Tynanthus panurensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Uncaria tomentosa
+Uxi amarelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vanillier 
  Varzea
  Vindecaa
  Virola
  Vochysia 
 Vouacapoua americana 
  Victoria amazonica
-Victoria (waterlily) (en) 
-W
-Wettinia drudei</t>
+Victoria (waterlily) (en) </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_d'Amazonie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_d%27Amazonie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Wettinia drudei</t>
         </is>
       </c>
     </row>
